--- a/datos_dropcontrol/2025-07-29.xlsx
+++ b/datos_dropcontrol/2025-07-29.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45867.04195311791</v>
+        <v>45867.04195311342</v>
       </c>
       <c r="B2" t="n">
         <v>2025</v>
@@ -522,6 +522,42 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>01:00:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45867.08370511012</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="E3" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>02:00:32</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-29.xlsx
+++ b/datos_dropcontrol/2025-07-29.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45867.08370511012</v>
+        <v>45867.08370511574</v>
       </c>
       <c r="B3" t="n">
         <v>2025</v>
@@ -558,6 +558,42 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>02:00:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45867.1253028607</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="E4" t="n">
+        <v>89.38</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>03:00:26</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-29.xlsx
+++ b/datos_dropcontrol/2025-07-29.xlsx
@@ -1,40 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\mi-app-humedad\datos_dropcontrol\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692C9870-E97E-4290-93E8-5711777EBA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Sem</t>
+  </si>
+  <si>
+    <t>Temperatura (ºC)</t>
+  </si>
+  <si>
+    <t>Humedad Relativa (%)</t>
+  </si>
+  <si>
+    <t>Radiación Solar (W/m²)</t>
+  </si>
+  <si>
+    <t>Velocidad de Viento Promedio (km/h)</t>
+  </si>
+  <si>
+    <t>Dirección de Viento Predominante</t>
+  </si>
+  <si>
+    <t>Precipitación (mm)</t>
+  </si>
+  <si>
+    <t>Hora de Ejecución</t>
+  </si>
+  <si>
+    <t>01:00:24</t>
+  </si>
+  <si>
+    <t>02:00:32</t>
+  </si>
+  <si>
+    <t>03:00:26</t>
+  </si>
+  <si>
+    <t>ENE</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ESE</t>
+  </si>
+  <si>
+    <t>ONO</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +115,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,177 +440,756 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Año</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sem</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Temperatura (ºC)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Humedad Relativa (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Radiación Solar (W/m²)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Velocidad de Viento Promedio (km/h)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Dirección de Viento Predominante</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Precipitación (mm)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Hora de Ejecución</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45867.04195311342</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="E2" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>01:00:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45867.08370511574</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="E3" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>02:00:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45867.1253028607</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="E4" t="n">
-        <v>89.38</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>03:00:26</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45867</v>
+      </c>
+      <c r="B2">
+        <v>2025</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>12.82</v>
+      </c>
+      <c r="E2">
+        <v>90.53</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45867.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>2025</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>13.25</v>
+      </c>
+      <c r="E3">
+        <v>89.62</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45867.083333333336</v>
+      </c>
+      <c r="B4">
+        <v>2025</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>12.9</v>
+      </c>
+      <c r="E4">
+        <v>89.31</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45867.125</v>
+      </c>
+      <c r="B5">
+        <v>2025</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>12.04</v>
+      </c>
+      <c r="E5">
+        <v>90.41</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45867.166666666664</v>
+      </c>
+      <c r="B6">
+        <v>2025</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>12.06</v>
+      </c>
+      <c r="E6">
+        <v>91.65</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45867.208333333336</v>
+      </c>
+      <c r="B7">
+        <v>2025</v>
+      </c>
+      <c r="C7">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>11.88</v>
+      </c>
+      <c r="E7">
+        <v>91.95</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45867.25</v>
+      </c>
+      <c r="B8">
+        <v>2025</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>11.54</v>
+      </c>
+      <c r="E8">
+        <v>92.19</v>
+      </c>
+      <c r="F8">
+        <v>3.96</v>
+      </c>
+      <c r="G8">
+        <v>1.89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45867.291666666664</v>
+      </c>
+      <c r="B9">
+        <v>2025</v>
+      </c>
+      <c r="C9">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>11.86</v>
+      </c>
+      <c r="E9">
+        <v>92.58</v>
+      </c>
+      <c r="F9">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="G9">
+        <v>1.36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45867.333333333336</v>
+      </c>
+      <c r="B10">
+        <v>2025</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>12.53</v>
+      </c>
+      <c r="E10">
+        <v>92.75</v>
+      </c>
+      <c r="F10">
+        <v>164.79</v>
+      </c>
+      <c r="G10">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45867.375</v>
+      </c>
+      <c r="B11">
+        <v>2025</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>14.5</v>
+      </c>
+      <c r="E11">
+        <v>91.7</v>
+      </c>
+      <c r="F11">
+        <v>423.63</v>
+      </c>
+      <c r="G11">
+        <v>5.31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45867.416666666664</v>
+      </c>
+      <c r="B12">
+        <v>2025</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>17.72</v>
+      </c>
+      <c r="E12">
+        <v>79.86</v>
+      </c>
+      <c r="F12">
+        <v>544.48</v>
+      </c>
+      <c r="G12">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45867.458333333336</v>
+      </c>
+      <c r="B13">
+        <v>2025</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>21.38</v>
+      </c>
+      <c r="E13">
+        <v>68.63</v>
+      </c>
+      <c r="F13">
+        <v>619.19000000000005</v>
+      </c>
+      <c r="G13">
+        <v>11.12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45867.5</v>
+      </c>
+      <c r="B14">
+        <v>2025</v>
+      </c>
+      <c r="C14">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>22.81</v>
+      </c>
+      <c r="E14">
+        <v>65.89</v>
+      </c>
+      <c r="F14">
+        <v>561.62</v>
+      </c>
+      <c r="G14">
+        <v>11.49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45867.541666666664</v>
+      </c>
+      <c r="B15">
+        <v>2025</v>
+      </c>
+      <c r="C15">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>23.5</v>
+      </c>
+      <c r="E15">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="F15">
+        <v>208.74</v>
+      </c>
+      <c r="G15">
+        <v>12.78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45867.583333333336</v>
+      </c>
+      <c r="B16">
+        <v>2025</v>
+      </c>
+      <c r="C16">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>20.94</v>
+      </c>
+      <c r="E16">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="F16">
+        <v>343.65</v>
+      </c>
+      <c r="G16">
+        <v>20.93</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45867.625</v>
+      </c>
+      <c r="B17">
+        <v>2025</v>
+      </c>
+      <c r="C17">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="E17">
+        <v>79.58</v>
+      </c>
+      <c r="F17">
+        <v>339.7</v>
+      </c>
+      <c r="G17">
+        <v>16.23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45867.666666666664</v>
+      </c>
+      <c r="B18">
+        <v>2025</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="E18">
+        <v>79.41</v>
+      </c>
+      <c r="F18">
+        <v>177.98</v>
+      </c>
+      <c r="G18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45867.708333333336</v>
+      </c>
+      <c r="B19">
+        <v>2025</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>17.39</v>
+      </c>
+      <c r="E19">
+        <v>80.86</v>
+      </c>
+      <c r="F19">
+        <v>43.07</v>
+      </c>
+      <c r="G19">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45867.75</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>15.86</v>
+      </c>
+      <c r="E20">
+        <v>84.92</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>5.16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45867.791666666664</v>
+      </c>
+      <c r="B21">
+        <v>2025</v>
+      </c>
+      <c r="C21">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>15.04</v>
+      </c>
+      <c r="E21">
+        <v>86.49</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.71</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45867.833333333336</v>
+      </c>
+      <c r="B22">
+        <v>2025</v>
+      </c>
+      <c r="C22">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>14.43</v>
+      </c>
+      <c r="E22">
+        <v>87.7</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>3.01</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45867.875</v>
+      </c>
+      <c r="B23">
+        <v>2025</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>13.96</v>
+      </c>
+      <c r="E23">
+        <v>88.66</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2.09</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45867.916666666664</v>
+      </c>
+      <c r="B24">
+        <v>2025</v>
+      </c>
+      <c r="C24">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>13.71</v>
+      </c>
+      <c r="E24">
+        <v>89.43</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45867.958333333336</v>
+      </c>
+      <c r="B25">
+        <v>2025</v>
+      </c>
+      <c r="C25">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>13.78</v>
+      </c>
+      <c r="E25">
+        <v>90.01</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
